--- a/experiments/pg/easy_simulation/traj_10_batch_200_max_rew_mlp_3x182_20k_epochs/log_best_traj.xlsx
+++ b/experiments/pg/easy_simulation/traj_10_batch_200_max_rew_mlp_3x182_20k_epochs/log_best_traj.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1371"/>
+  <dimension ref="A1:K1421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61036,6 +61036,2216 @@
         </is>
       </c>
     </row>
+    <row r="1372">
+      <c r="A1372" t="n">
+        <v>1370</v>
+      </c>
+      <c r="B1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1372" t="inlineStr">
+        <is>
+          <t>[2 2 2]</t>
+        </is>
+      </c>
+      <c r="D1372" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1372" t="n">
+        <v>15.91608409922425</v>
+      </c>
+      <c r="F1372" t="n">
+        <v>2.574907302856445</v>
+      </c>
+      <c r="G1372" t="n">
+        <v>25.74903971819315</v>
+      </c>
+      <c r="H1372" t="n">
+        <v>1.114822680392535e-06</v>
+      </c>
+      <c r="I1372" t="n">
+        <v>0.0001000006523117559</v>
+      </c>
+      <c r="J1372" t="inlineStr">
+        <is>
+          <t>[0.8816138505935669, 0.1054781898856163, 0.01290799304842949]</t>
+        </is>
+      </c>
+      <c r="K1372" t="inlineStr">
+        <is>
+          <t>[0.9999223947525024, 7.756835839245468e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" t="n">
+        <v>1370</v>
+      </c>
+      <c r="B1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1373" t="inlineStr">
+        <is>
+          <t>[1 2 2]</t>
+        </is>
+      </c>
+      <c r="D1373" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1373" t="n">
+        <v>23.26311810771615</v>
+      </c>
+      <c r="F1373" t="n">
+        <v>2.574907302856445</v>
+      </c>
+      <c r="G1373" t="n">
+        <v>25.74903971819315</v>
+      </c>
+      <c r="H1373" t="n">
+        <v>1.114822680392535e-06</v>
+      </c>
+      <c r="I1373" t="n">
+        <v>0.0001000006523117559</v>
+      </c>
+      <c r="J1373" t="inlineStr">
+        <is>
+          <t>[0.016709312796592712, 0.8419070839881897, 0.14138366281986237]</t>
+        </is>
+      </c>
+      <c r="K1373" t="inlineStr">
+        <is>
+          <t>[0.9999299049377441, 7.009493856457993e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" t="n">
+        <v>1370</v>
+      </c>
+      <c r="B1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1374" t="inlineStr">
+        <is>
+          <t>[1 1 2]</t>
+        </is>
+      </c>
+      <c r="D1374" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1374" t="n">
+        <v>19.01452196225036</v>
+      </c>
+      <c r="F1374" t="n">
+        <v>2.574907302856445</v>
+      </c>
+      <c r="G1374" t="n">
+        <v>25.74903971819315</v>
+      </c>
+      <c r="H1374" t="n">
+        <v>1.114822680392535e-06</v>
+      </c>
+      <c r="I1374" t="n">
+        <v>0.0001000006523117559</v>
+      </c>
+      <c r="J1374" t="inlineStr">
+        <is>
+          <t>[0.023191511631011963, 0.015009785071015358, 0.9617986679077148]</t>
+        </is>
+      </c>
+      <c r="K1374" t="inlineStr">
+        <is>
+          <t>[0.9999388456344604, 6.115161522757262e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" t="n">
+        <v>1370</v>
+      </c>
+      <c r="B1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1375" t="inlineStr">
+        <is>
+          <t>[1 1 1]</t>
+        </is>
+      </c>
+      <c r="D1375" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1375" t="n">
+        <v>20.69653372364509</v>
+      </c>
+      <c r="F1375" t="n">
+        <v>2.574907302856445</v>
+      </c>
+      <c r="G1375" t="n">
+        <v>25.74903971819315</v>
+      </c>
+      <c r="H1375" t="n">
+        <v>1.114822680392535e-06</v>
+      </c>
+      <c r="I1375" t="n">
+        <v>0.0001000006523117559</v>
+      </c>
+      <c r="J1375" t="inlineStr">
+        <is>
+          <t>[0.9643781781196594, 0.0277778971940279, 0.007843921892344952]</t>
+        </is>
+      </c>
+      <c r="K1375" t="inlineStr">
+        <is>
+          <t>[0.9999493360519409, 5.067171878181398e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" t="n">
+        <v>1370</v>
+      </c>
+      <c r="B1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1376" t="inlineStr">
+        <is>
+          <t>[0 1 1]</t>
+        </is>
+      </c>
+      <c r="D1376" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1376" t="n">
+        <v>25.00251454989939</v>
+      </c>
+      <c r="F1376" t="n">
+        <v>2.574907302856445</v>
+      </c>
+      <c r="G1376" t="n">
+        <v>25.74903971819315</v>
+      </c>
+      <c r="H1376" t="n">
+        <v>1.114822680392535e-06</v>
+      </c>
+      <c r="I1376" t="n">
+        <v>0.0001000006523117559</v>
+      </c>
+      <c r="J1376" t="inlineStr">
+        <is>
+          <t>[0.00013318422134034336, 0.6647362112998962, 0.33513063192367554]</t>
+        </is>
+      </c>
+      <c r="K1376" t="inlineStr">
+        <is>
+          <t>[0.9999432563781738, 5.673603300238028e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" t="n">
+        <v>1370</v>
+      </c>
+      <c r="B1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1377" t="inlineStr">
+        <is>
+          <t>[0 0 1]</t>
+        </is>
+      </c>
+      <c r="D1377" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1377" t="n">
+        <v>23.81196312324624</v>
+      </c>
+      <c r="F1377" t="n">
+        <v>2.574907302856445</v>
+      </c>
+      <c r="G1377" t="n">
+        <v>25.74903971819315</v>
+      </c>
+      <c r="H1377" t="n">
+        <v>1.114822680392535e-06</v>
+      </c>
+      <c r="I1377" t="n">
+        <v>0.0001000006523117559</v>
+      </c>
+      <c r="J1377" t="inlineStr">
+        <is>
+          <t>[6.601800851058215e-05, 0.0053716301918029785, 0.9945623278617859]</t>
+        </is>
+      </c>
+      <c r="K1377" t="inlineStr">
+        <is>
+          <t>[0.9999405145645142, 5.9463454817887396e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" t="n">
+        <v>1370</v>
+      </c>
+      <c r="B1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1378" t="inlineStr">
+        <is>
+          <t>[0 0 0]</t>
+        </is>
+      </c>
+      <c r="D1378" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1378" t="n">
+        <v>25.74904083301583</v>
+      </c>
+      <c r="F1378" t="n">
+        <v>2.574907302856445</v>
+      </c>
+      <c r="G1378" t="n">
+        <v>25.74903971819315</v>
+      </c>
+      <c r="H1378" t="n">
+        <v>1.114822680392535e-06</v>
+      </c>
+      <c r="I1378" t="n">
+        <v>0.0001000006523117559</v>
+      </c>
+      <c r="J1378" t="inlineStr">
+        <is>
+          <t>[0.00022072582214605063, 0.8565765023231506, 0.14320270717144012]</t>
+        </is>
+      </c>
+      <c r="K1378" t="inlineStr">
+        <is>
+          <t>[0.9999387264251709, 6.122524791862816e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" t="n">
+        <v>1370</v>
+      </c>
+      <c r="B1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1379" t="inlineStr">
+        <is>
+          <t>[ 0  0 -1]</t>
+        </is>
+      </c>
+      <c r="D1379" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1379" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1379" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1379" t="n">
+        <v>25.74903971819315</v>
+      </c>
+      <c r="H1379" t="n">
+        <v>1.114822680392535e-06</v>
+      </c>
+      <c r="I1379" t="n">
+        <v>0.0001000006523117559</v>
+      </c>
+      <c r="J1379" t="inlineStr">
+        <is>
+          <t>[0.0028467767406255007, 0.9929919242858887, 0.0041612619534134865]</t>
+        </is>
+      </c>
+      <c r="K1379" t="inlineStr">
+        <is>
+          <t>[0.9999226331710815, 7.738520071143284e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" t="n">
+        <v>1370</v>
+      </c>
+      <c r="B1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1380" t="inlineStr">
+        <is>
+          <t>[ 0 -1 -1]</t>
+        </is>
+      </c>
+      <c r="D1380" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1380" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1380" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1380" t="n">
+        <v>25.74903971819315</v>
+      </c>
+      <c r="H1380" t="n">
+        <v>1.114822680392535e-06</v>
+      </c>
+      <c r="I1380" t="n">
+        <v>0.0001000006523117559</v>
+      </c>
+      <c r="J1380" t="inlineStr">
+        <is>
+          <t>[0.25261595845222473, 0.5596680641174316, 0.18771596252918243]</t>
+        </is>
+      </c>
+      <c r="K1380" t="inlineStr">
+        <is>
+          <t>[0.9999085664749146, 9.13741096155718e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" t="n">
+        <v>1370</v>
+      </c>
+      <c r="B1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1381" t="inlineStr">
+        <is>
+          <t>[-1 -1 -1]</t>
+        </is>
+      </c>
+      <c r="D1381" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1381" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1381" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1381" t="n">
+        <v>25.74903971819315</v>
+      </c>
+      <c r="H1381" t="n">
+        <v>1.114822680392535e-06</v>
+      </c>
+      <c r="I1381" t="n">
+        <v>0.0001000006523117559</v>
+      </c>
+      <c r="J1381" t="inlineStr">
+        <is>
+          <t>[0.00015223263471852988, 0.8446722030639648, 0.15517555177211761]</t>
+        </is>
+      </c>
+      <c r="K1381" t="inlineStr">
+        <is>
+          <t>[0.9998818635940552, 0.00011816109326900914]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" t="n">
+        <v>1380</v>
+      </c>
+      <c r="B1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1382" t="inlineStr">
+        <is>
+          <t>[2 2 2]</t>
+        </is>
+      </c>
+      <c r="D1382" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1382" t="n">
+        <v>15.91608409922425</v>
+      </c>
+      <c r="F1382" t="n">
+        <v>2.574905395507812</v>
+      </c>
+      <c r="G1382" t="n">
+        <v>25.74904026020639</v>
+      </c>
+      <c r="H1382" t="n">
+        <v>5.728094407686513e-07</v>
+      </c>
+      <c r="I1382" t="n">
+        <v>0.0001000018875004928</v>
+      </c>
+      <c r="J1382" t="inlineStr">
+        <is>
+          <t>[0.9592239260673523, 0.027956396341323853, 0.012819710187613964]</t>
+        </is>
+      </c>
+      <c r="K1382" t="inlineStr">
+        <is>
+          <t>[0.9999216794967651, 7.82981442171149e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" t="n">
+        <v>1380</v>
+      </c>
+      <c r="B1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1383" t="inlineStr">
+        <is>
+          <t>[1 2 2]</t>
+        </is>
+      </c>
+      <c r="D1383" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1383" t="n">
+        <v>23.26311810771615</v>
+      </c>
+      <c r="F1383" t="n">
+        <v>2.574905395507812</v>
+      </c>
+      <c r="G1383" t="n">
+        <v>25.74904026020639</v>
+      </c>
+      <c r="H1383" t="n">
+        <v>5.728094407686513e-07</v>
+      </c>
+      <c r="I1383" t="n">
+        <v>0.0001000018875004928</v>
+      </c>
+      <c r="J1383" t="inlineStr">
+        <is>
+          <t>[0.03729351982474327, 0.5134251713752747, 0.44928136467933655]</t>
+        </is>
+      </c>
+      <c r="K1383" t="inlineStr">
+        <is>
+          <t>[0.999929666519165, 7.027832180028781e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" t="n">
+        <v>1380</v>
+      </c>
+      <c r="B1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1384" t="inlineStr">
+        <is>
+          <t>[1 1 2]</t>
+        </is>
+      </c>
+      <c r="D1384" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1384" t="n">
+        <v>19.01452196225036</v>
+      </c>
+      <c r="F1384" t="n">
+        <v>2.574905395507812</v>
+      </c>
+      <c r="G1384" t="n">
+        <v>25.74904026020639</v>
+      </c>
+      <c r="H1384" t="n">
+        <v>5.728094407686513e-07</v>
+      </c>
+      <c r="I1384" t="n">
+        <v>0.0001000018875004928</v>
+      </c>
+      <c r="J1384" t="inlineStr">
+        <is>
+          <t>[0.021403664723038673, 0.002247406402602792, 0.9763489961624146]</t>
+        </is>
+      </c>
+      <c r="K1384" t="inlineStr">
+        <is>
+          <t>[0.9999387264251709, 6.131220288807526e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" t="n">
+        <v>1380</v>
+      </c>
+      <c r="B1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1385" t="inlineStr">
+        <is>
+          <t>[1 1 1]</t>
+        </is>
+      </c>
+      <c r="D1385" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1385" t="n">
+        <v>20.69653372364509</v>
+      </c>
+      <c r="F1385" t="n">
+        <v>2.574905395507812</v>
+      </c>
+      <c r="G1385" t="n">
+        <v>25.74904026020639</v>
+      </c>
+      <c r="H1385" t="n">
+        <v>5.728094407686513e-07</v>
+      </c>
+      <c r="I1385" t="n">
+        <v>0.0001000018875004928</v>
+      </c>
+      <c r="J1385" t="inlineStr">
+        <is>
+          <t>[0.9893478155136108, 0.0019077642355114222, 0.008744408376514912]</t>
+        </is>
+      </c>
+      <c r="K1385" t="inlineStr">
+        <is>
+          <t>[0.9999492168426514, 5.078210961073637e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" t="n">
+        <v>1380</v>
+      </c>
+      <c r="B1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1386" t="inlineStr">
+        <is>
+          <t>[0 1 1]</t>
+        </is>
+      </c>
+      <c r="D1386" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1386" t="n">
+        <v>25.00251409730346</v>
+      </c>
+      <c r="F1386" t="n">
+        <v>2.574905395507812</v>
+      </c>
+      <c r="G1386" t="n">
+        <v>25.74904026020639</v>
+      </c>
+      <c r="H1386" t="n">
+        <v>5.728094407686513e-07</v>
+      </c>
+      <c r="I1386" t="n">
+        <v>0.0001000018875004928</v>
+      </c>
+      <c r="J1386" t="inlineStr">
+        <is>
+          <t>[0.00014161461149342358, 0.2471165806055069, 0.752741813659668]</t>
+        </is>
+      </c>
+      <c r="K1386" t="inlineStr">
+        <is>
+          <t>[0.9999434947967529, 5.653172775055282e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" t="n">
+        <v>1380</v>
+      </c>
+      <c r="B1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1387" t="inlineStr">
+        <is>
+          <t>[0 1 0]</t>
+        </is>
+      </c>
+      <c r="D1387" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1387" t="n">
+        <v>23.81196312324624</v>
+      </c>
+      <c r="F1387" t="n">
+        <v>2.574905395507812</v>
+      </c>
+      <c r="G1387" t="n">
+        <v>25.74904026020639</v>
+      </c>
+      <c r="H1387" t="n">
+        <v>5.728094407686513e-07</v>
+      </c>
+      <c r="I1387" t="n">
+        <v>0.0001000018875004928</v>
+      </c>
+      <c r="J1387" t="inlineStr">
+        <is>
+          <t>[6.041851520421915e-05, 0.9970853924751282, 0.0028542315121740103]</t>
+        </is>
+      </c>
+      <c r="K1387" t="inlineStr">
+        <is>
+          <t>[0.9999405145645142, 5.948931720922701e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" t="n">
+        <v>1380</v>
+      </c>
+      <c r="B1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1388" t="inlineStr">
+        <is>
+          <t>[0 0 0]</t>
+        </is>
+      </c>
+      <c r="D1388" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1388" t="n">
+        <v>25.74904083301583</v>
+      </c>
+      <c r="F1388" t="n">
+        <v>2.574905395507812</v>
+      </c>
+      <c r="G1388" t="n">
+        <v>25.74904026020639</v>
+      </c>
+      <c r="H1388" t="n">
+        <v>5.728094407686513e-07</v>
+      </c>
+      <c r="I1388" t="n">
+        <v>0.0001000018875004928</v>
+      </c>
+      <c r="J1388" t="inlineStr">
+        <is>
+          <t>[0.0013890023110434413, 0.48302438855171204, 0.5155865550041199]</t>
+        </is>
+      </c>
+      <c r="K1388" t="inlineStr">
+        <is>
+          <t>[0.9999387264251709, 6.126087828306481e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" t="n">
+        <v>1380</v>
+      </c>
+      <c r="B1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1389" t="inlineStr">
+        <is>
+          <t>[ 0  0 -1]</t>
+        </is>
+      </c>
+      <c r="D1389" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1389" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1389" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1389" t="n">
+        <v>25.74904026020639</v>
+      </c>
+      <c r="H1389" t="n">
+        <v>5.728094407686513e-07</v>
+      </c>
+      <c r="I1389" t="n">
+        <v>0.0001000018875004928</v>
+      </c>
+      <c r="J1389" t="inlineStr">
+        <is>
+          <t>[0.009574398398399353, 0.9803604483604431, 0.010065156035125256]</t>
+        </is>
+      </c>
+      <c r="K1389" t="inlineStr">
+        <is>
+          <t>[0.9999223947525024, 7.765036571072415e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" t="n">
+        <v>1380</v>
+      </c>
+      <c r="B1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1390" t="inlineStr">
+        <is>
+          <t>[ 0 -1 -1]</t>
+        </is>
+      </c>
+      <c r="D1390" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1390" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1390" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1390" t="n">
+        <v>25.74904026020639</v>
+      </c>
+      <c r="H1390" t="n">
+        <v>5.728094407686513e-07</v>
+      </c>
+      <c r="I1390" t="n">
+        <v>0.0001000018875004928</v>
+      </c>
+      <c r="J1390" t="inlineStr">
+        <is>
+          <t>[0.45391494035720825, 0.31335321068763733, 0.23273180425167084]</t>
+        </is>
+      </c>
+      <c r="K1390" t="inlineStr">
+        <is>
+          <t>[0.9999080896377563, 9.193540608976036e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" t="n">
+        <v>1380</v>
+      </c>
+      <c r="B1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1391" t="inlineStr">
+        <is>
+          <t>[ 0 -1 -2]</t>
+        </is>
+      </c>
+      <c r="D1391" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1391" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1391" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1391" t="n">
+        <v>25.74904026020639</v>
+      </c>
+      <c r="H1391" t="n">
+        <v>5.728094407686513e-07</v>
+      </c>
+      <c r="I1391" t="n">
+        <v>0.0001000018875004928</v>
+      </c>
+      <c r="J1391" t="inlineStr">
+        <is>
+          <t>[0.5638495683670044, 0.40271735191345215, 0.033433012664318085]</t>
+        </is>
+      </c>
+      <c r="K1391" t="inlineStr">
+        <is>
+          <t>[0.9998674392700195, 0.0001325071498285979]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" t="n">
+        <v>1390</v>
+      </c>
+      <c r="B1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1392" t="inlineStr">
+        <is>
+          <t>[2 2 2]</t>
+        </is>
+      </c>
+      <c r="D1392" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1392" t="n">
+        <v>15.91608409922425</v>
+      </c>
+      <c r="F1392" t="n">
+        <v>2.57490348815918</v>
+      </c>
+      <c r="G1392" t="n">
+        <v>25.74904080221963</v>
+      </c>
+      <c r="H1392" t="n">
+        <v>3.079620469748079e-08</v>
+      </c>
+      <c r="I1392" t="n">
+        <v>0.0001000001849390661</v>
+      </c>
+      <c r="J1392" t="inlineStr">
+        <is>
+          <t>[0.9670798182487488, 0.010610268451273441, 0.02230987511575222]</t>
+        </is>
+      </c>
+      <c r="K1392" t="inlineStr">
+        <is>
+          <t>[0.9999226331710815, 7.736970292171463e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" t="n">
+        <v>1390</v>
+      </c>
+      <c r="B1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1393" t="inlineStr">
+        <is>
+          <t>[1 2 2]</t>
+        </is>
+      </c>
+      <c r="D1393" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1393" t="n">
+        <v>23.26312172059164</v>
+      </c>
+      <c r="F1393" t="n">
+        <v>2.57490348815918</v>
+      </c>
+      <c r="G1393" t="n">
+        <v>25.74904080221963</v>
+      </c>
+      <c r="H1393" t="n">
+        <v>3.079620469748079e-08</v>
+      </c>
+      <c r="I1393" t="n">
+        <v>0.0001000001849390661</v>
+      </c>
+      <c r="J1393" t="inlineStr">
+        <is>
+          <t>[0.03155389055609703, 0.09197837859392166, 0.876467764377594]</t>
+        </is>
+      </c>
+      <c r="K1393" t="inlineStr">
+        <is>
+          <t>[0.9999309778213501, 6.896263221278787e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" t="n">
+        <v>1390</v>
+      </c>
+      <c r="B1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1394" t="inlineStr">
+        <is>
+          <t>[1 2 1]</t>
+        </is>
+      </c>
+      <c r="D1394" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1394" t="n">
+        <v>24.3900360326355</v>
+      </c>
+      <c r="F1394" t="n">
+        <v>2.57490348815918</v>
+      </c>
+      <c r="G1394" t="n">
+        <v>25.74904080221963</v>
+      </c>
+      <c r="H1394" t="n">
+        <v>3.079620469748079e-08</v>
+      </c>
+      <c r="I1394" t="n">
+        <v>0.0001000001849390661</v>
+      </c>
+      <c r="J1394" t="inlineStr">
+        <is>
+          <t>[0.6172804236412048, 0.3638802468776703, 0.01883927546441555]</t>
+        </is>
+      </c>
+      <c r="K1394" t="inlineStr">
+        <is>
+          <t>[0.9999419450759888, 5.802593659609556e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" t="n">
+        <v>1390</v>
+      </c>
+      <c r="B1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1395" t="inlineStr">
+        <is>
+          <t>[0 2 1]</t>
+        </is>
+      </c>
+      <c r="D1395" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1395" t="n">
+        <v>24.48968206299807</v>
+      </c>
+      <c r="F1395" t="n">
+        <v>2.57490348815918</v>
+      </c>
+      <c r="G1395" t="n">
+        <v>25.74904080221963</v>
+      </c>
+      <c r="H1395" t="n">
+        <v>3.079620469748079e-08</v>
+      </c>
+      <c r="I1395" t="n">
+        <v>0.0001000001849390661</v>
+      </c>
+      <c r="J1395" t="inlineStr">
+        <is>
+          <t>[0.00031680974643677473, 0.8148431181907654, 0.18484002351760864]</t>
+        </is>
+      </c>
+      <c r="K1395" t="inlineStr">
+        <is>
+          <t>[0.9999364614486694, 6.349402974592522e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" t="n">
+        <v>1390</v>
+      </c>
+      <c r="B1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1396" t="inlineStr">
+        <is>
+          <t>[0 2 0]</t>
+        </is>
+      </c>
+      <c r="D1396" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1396" t="n">
+        <v>25.00251409730346</v>
+      </c>
+      <c r="F1396" t="n">
+        <v>2.57490348815918</v>
+      </c>
+      <c r="G1396" t="n">
+        <v>25.74904080221963</v>
+      </c>
+      <c r="H1396" t="n">
+        <v>3.079620469748079e-08</v>
+      </c>
+      <c r="I1396" t="n">
+        <v>0.0001000001849390661</v>
+      </c>
+      <c r="J1396" t="inlineStr">
+        <is>
+          <t>[0.00014533768990077078, 0.9975566864013672, 0.0022979737259447575]</t>
+        </is>
+      </c>
+      <c r="K1396" t="inlineStr">
+        <is>
+          <t>[0.999931812286377, 6.818849942646921e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" t="n">
+        <v>1390</v>
+      </c>
+      <c r="B1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1397" t="inlineStr">
+        <is>
+          <t>[0 1 0]</t>
+        </is>
+      </c>
+      <c r="D1397" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1397" t="n">
+        <v>23.81196312324624</v>
+      </c>
+      <c r="F1397" t="n">
+        <v>2.57490348815918</v>
+      </c>
+      <c r="G1397" t="n">
+        <v>25.74904080221963</v>
+      </c>
+      <c r="H1397" t="n">
+        <v>3.079620469748079e-08</v>
+      </c>
+      <c r="I1397" t="n">
+        <v>0.0001000001849390661</v>
+      </c>
+      <c r="J1397" t="inlineStr">
+        <is>
+          <t>[0.00014748003741260618, 0.929010272026062, 0.0708421841263771]</t>
+        </is>
+      </c>
+      <c r="K1397" t="inlineStr">
+        <is>
+          <t>[0.9999421834945679, 5.7835572079056874e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" t="n">
+        <v>1390</v>
+      </c>
+      <c r="B1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1398" t="inlineStr">
+        <is>
+          <t>[0 0 0]</t>
+        </is>
+      </c>
+      <c r="D1398" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1398" t="n">
+        <v>25.74904083301583</v>
+      </c>
+      <c r="F1398" t="n">
+        <v>2.57490348815918</v>
+      </c>
+      <c r="G1398" t="n">
+        <v>25.74904080221963</v>
+      </c>
+      <c r="H1398" t="n">
+        <v>3.079620469748079e-08</v>
+      </c>
+      <c r="I1398" t="n">
+        <v>0.0001000001849390661</v>
+      </c>
+      <c r="J1398" t="inlineStr">
+        <is>
+          <t>[0.001205587643198669, 0.010832257568836212, 0.9879621863365173]</t>
+        </is>
+      </c>
+      <c r="K1398" t="inlineStr">
+        <is>
+          <t>[0.9999402761459351, 5.967886681901291e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" t="n">
+        <v>1390</v>
+      </c>
+      <c r="B1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1399" t="inlineStr">
+        <is>
+          <t>[ 0  0 -1]</t>
+        </is>
+      </c>
+      <c r="D1399" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1399" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1399" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1399" t="n">
+        <v>25.74904080221963</v>
+      </c>
+      <c r="H1399" t="n">
+        <v>3.079620469748079e-08</v>
+      </c>
+      <c r="I1399" t="n">
+        <v>0.0001000001849390661</v>
+      </c>
+      <c r="J1399" t="inlineStr">
+        <is>
+          <t>[0.03765915334224701, 0.8319201469421387, 0.13042069971561432]</t>
+        </is>
+      </c>
+      <c r="K1399" t="inlineStr">
+        <is>
+          <t>[0.9999243021011353, 7.563892722828314e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" t="n">
+        <v>1390</v>
+      </c>
+      <c r="B1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1400" t="inlineStr">
+        <is>
+          <t>[ 0 -1 -1]</t>
+        </is>
+      </c>
+      <c r="D1400" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1400" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1400" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1400" t="n">
+        <v>25.74904080221963</v>
+      </c>
+      <c r="H1400" t="n">
+        <v>3.079620469748079e-08</v>
+      </c>
+      <c r="I1400" t="n">
+        <v>0.0001000001849390661</v>
+      </c>
+      <c r="J1400" t="inlineStr">
+        <is>
+          <t>[0.4033004939556122, 0.05579974874854088, 0.5408997535705566]</t>
+        </is>
+      </c>
+      <c r="K1400" t="inlineStr">
+        <is>
+          <t>[0.9999102354049683, 8.973896910902113e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" t="n">
+        <v>1390</v>
+      </c>
+      <c r="B1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1401" t="inlineStr">
+        <is>
+          <t>[-1 -1 -1]</t>
+        </is>
+      </c>
+      <c r="D1401" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1401" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1401" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1401" t="n">
+        <v>25.74904080221963</v>
+      </c>
+      <c r="H1401" t="n">
+        <v>3.079620469748079e-08</v>
+      </c>
+      <c r="I1401" t="n">
+        <v>0.0001000001849390661</v>
+      </c>
+      <c r="J1401" t="inlineStr">
+        <is>
+          <t>[0.00042848699376918375, 0.3057323098182678, 0.6938392519950867]</t>
+        </is>
+      </c>
+      <c r="K1401" t="inlineStr">
+        <is>
+          <t>[0.999884843826294, 0.00011517188977450132]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" t="n">
+        <v>1400</v>
+      </c>
+      <c r="B1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1402" t="inlineStr">
+        <is>
+          <t>[2 2 2]</t>
+        </is>
+      </c>
+      <c r="D1402" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1402" t="n">
+        <v>15.91608409922425</v>
+      </c>
+      <c r="F1402" t="n">
+        <v>2.578634262084961</v>
+      </c>
+      <c r="G1402" t="n">
+        <v>25.74530819933727</v>
+      </c>
+      <c r="H1402" t="n">
+        <v>0.003732633678559694</v>
+      </c>
+      <c r="I1402" t="n">
+        <v>0.05265537276943867</v>
+      </c>
+      <c r="J1402" t="inlineStr">
+        <is>
+          <t>[0.8808137774467468, 0.014631358906626701, 0.10455478727817535]</t>
+        </is>
+      </c>
+      <c r="K1402" t="inlineStr">
+        <is>
+          <t>[0.9999184608459473, 8.155027171596885e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" t="n">
+        <v>1400</v>
+      </c>
+      <c r="B1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1403" t="inlineStr">
+        <is>
+          <t>[1 2 2]</t>
+        </is>
+      </c>
+      <c r="D1403" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1403" t="n">
+        <v>23.26312172059164</v>
+      </c>
+      <c r="F1403" t="n">
+        <v>2.578634262084961</v>
+      </c>
+      <c r="G1403" t="n">
+        <v>25.74530819933727</v>
+      </c>
+      <c r="H1403" t="n">
+        <v>0.003732633678559694</v>
+      </c>
+      <c r="I1403" t="n">
+        <v>0.05265537276943867</v>
+      </c>
+      <c r="J1403" t="inlineStr">
+        <is>
+          <t>[0.006295164581388235, 0.019829008728265762, 0.9738758206367493]</t>
+        </is>
+      </c>
+      <c r="K1403" t="inlineStr">
+        <is>
+          <t>[0.9999287128448486, 7.130482117645442e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" t="n">
+        <v>1400</v>
+      </c>
+      <c r="B1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1404" t="inlineStr">
+        <is>
+          <t>[1 2 1]</t>
+        </is>
+      </c>
+      <c r="D1404" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1404" t="n">
+        <v>24.3900360326355</v>
+      </c>
+      <c r="F1404" t="n">
+        <v>2.578634262084961</v>
+      </c>
+      <c r="G1404" t="n">
+        <v>25.74530819933727</v>
+      </c>
+      <c r="H1404" t="n">
+        <v>0.003732633678559694</v>
+      </c>
+      <c r="I1404" t="n">
+        <v>0.05265537276943867</v>
+      </c>
+      <c r="J1404" t="inlineStr">
+        <is>
+          <t>[0.4045630395412445, 0.29819822311401367, 0.2972387373447418]</t>
+        </is>
+      </c>
+      <c r="K1404" t="inlineStr">
+        <is>
+          <t>[0.9999401569366455, 5.982816219329834e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" t="n">
+        <v>1400</v>
+      </c>
+      <c r="B1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1405" t="inlineStr">
+        <is>
+          <t>[0 2 1]</t>
+        </is>
+      </c>
+      <c r="D1405" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1405" t="n">
+        <v>24.48968206299807</v>
+      </c>
+      <c r="F1405" t="n">
+        <v>2.578634262084961</v>
+      </c>
+      <c r="G1405" t="n">
+        <v>25.74530819933727</v>
+      </c>
+      <c r="H1405" t="n">
+        <v>0.003732633678559694</v>
+      </c>
+      <c r="I1405" t="n">
+        <v>0.05265537276943867</v>
+      </c>
+      <c r="J1405" t="inlineStr">
+        <is>
+          <t>[0.0002858226071111858, 0.27550312876701355, 0.7242110371589661]</t>
+        </is>
+      </c>
+      <c r="K1405" t="inlineStr">
+        <is>
+          <t>[0.9999358654022217, 6.41479782643728e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406" t="n">
+        <v>1400</v>
+      </c>
+      <c r="B1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1406" t="inlineStr">
+        <is>
+          <t>[0 2 0]</t>
+        </is>
+      </c>
+      <c r="D1406" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1406" t="n">
+        <v>25.00251409730346</v>
+      </c>
+      <c r="F1406" t="n">
+        <v>2.578634262084961</v>
+      </c>
+      <c r="G1406" t="n">
+        <v>25.74530819933727</v>
+      </c>
+      <c r="H1406" t="n">
+        <v>0.003732633678559694</v>
+      </c>
+      <c r="I1406" t="n">
+        <v>0.05265537276943867</v>
+      </c>
+      <c r="J1406" t="inlineStr">
+        <is>
+          <t>[0.00018141781038139015, 0.9711893200874329, 0.028629198670387268]</t>
+        </is>
+      </c>
+      <c r="K1406" t="inlineStr">
+        <is>
+          <t>[0.9999310970306396, 6.885211041662842e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" t="n">
+        <v>1400</v>
+      </c>
+      <c r="B1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1407" t="inlineStr">
+        <is>
+          <t>[0 1 0]</t>
+        </is>
+      </c>
+      <c r="D1407" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1407" t="n">
+        <v>23.98568536496206</v>
+      </c>
+      <c r="F1407" t="n">
+        <v>2.578634262084961</v>
+      </c>
+      <c r="G1407" t="n">
+        <v>25.74530819933727</v>
+      </c>
+      <c r="H1407" t="n">
+        <v>0.003732633678559694</v>
+      </c>
+      <c r="I1407" t="n">
+        <v>0.05265537276943867</v>
+      </c>
+      <c r="J1407" t="inlineStr">
+        <is>
+          <t>[0.00013486886746250093, 0.0692836344242096, 0.9305815100669861]</t>
+        </is>
+      </c>
+      <c r="K1407" t="inlineStr">
+        <is>
+          <t>[0.999941349029541, 5.859802331542596e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" t="n">
+        <v>1400</v>
+      </c>
+      <c r="B1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1408" t="inlineStr">
+        <is>
+          <t>[ 0  1 -1]</t>
+        </is>
+      </c>
+      <c r="D1408" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1408" t="n">
+        <v>25.74904083301583</v>
+      </c>
+      <c r="F1408" t="n">
+        <v>2.578634262084961</v>
+      </c>
+      <c r="G1408" t="n">
+        <v>25.74530819933727</v>
+      </c>
+      <c r="H1408" t="n">
+        <v>0.003732633678559694</v>
+      </c>
+      <c r="I1408" t="n">
+        <v>0.05265537276943867</v>
+      </c>
+      <c r="J1408" t="inlineStr">
+        <is>
+          <t>[0.000330080947605893, 0.982283890247345, 0.017386050894856453]</t>
+        </is>
+      </c>
+      <c r="K1408" t="inlineStr">
+        <is>
+          <t>[0.9999237060546875, 7.627502782270312e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" t="n">
+        <v>1400</v>
+      </c>
+      <c r="B1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1409" t="inlineStr">
+        <is>
+          <t>[ 0  0 -1]</t>
+        </is>
+      </c>
+      <c r="D1409" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1409" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1409" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1409" t="n">
+        <v>25.74530819933727</v>
+      </c>
+      <c r="H1409" t="n">
+        <v>0.003732633678559694</v>
+      </c>
+      <c r="I1409" t="n">
+        <v>0.05265537276943867</v>
+      </c>
+      <c r="J1409" t="inlineStr">
+        <is>
+          <t>[0.011746943928301334, 0.10678891837596893, 0.8814641833305359]</t>
+        </is>
+      </c>
+      <c r="K1409" t="inlineStr">
+        <is>
+          <t>[0.9999228715896606, 7.713212835369632e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" t="n">
+        <v>1400</v>
+      </c>
+      <c r="B1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1410" t="inlineStr">
+        <is>
+          <t>[ 0  0 -2]</t>
+        </is>
+      </c>
+      <c r="D1410" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1410" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1410" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1410" t="n">
+        <v>25.74530819933727</v>
+      </c>
+      <c r="H1410" t="n">
+        <v>0.003732633678559694</v>
+      </c>
+      <c r="I1410" t="n">
+        <v>0.05265537276943867</v>
+      </c>
+      <c r="J1410" t="inlineStr">
+        <is>
+          <t>[0.12102853506803513, 0.7668308019638062, 0.11214066296815872]</t>
+        </is>
+      </c>
+      <c r="K1410" t="inlineStr">
+        <is>
+          <t>[0.9998844861984253, 0.00011546944733709097]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411" t="n">
+        <v>1400</v>
+      </c>
+      <c r="B1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1411" t="inlineStr">
+        <is>
+          <t>[ 0  0 -3]</t>
+        </is>
+      </c>
+      <c r="D1411" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1411" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1411" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1411" t="n">
+        <v>25.74530819933727</v>
+      </c>
+      <c r="H1411" t="n">
+        <v>0.003732633678559694</v>
+      </c>
+      <c r="I1411" t="n">
+        <v>0.05265537276943867</v>
+      </c>
+      <c r="J1411" t="inlineStr">
+        <is>
+          <t>[0.25608474016189575, 0.7180866599082947, 0.025828564539551735]</t>
+        </is>
+      </c>
+      <c r="K1411" t="inlineStr">
+        <is>
+          <t>[0.9998087286949158, 0.00019132345914840698]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412" t="n">
+        <v>1410</v>
+      </c>
+      <c r="B1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1412" t="inlineStr">
+        <is>
+          <t>[2 2 2]</t>
+        </is>
+      </c>
+      <c r="D1412" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1412" t="n">
+        <v>21.05464079100679</v>
+      </c>
+      <c r="F1412" t="n">
+        <v>2.580049514770508</v>
+      </c>
+      <c r="G1412" t="n">
+        <v>25.74389534823082</v>
+      </c>
+      <c r="H1412" t="n">
+        <v>0.005145484785010979</v>
+      </c>
+      <c r="I1412" t="n">
+        <v>0.04169654139751527</v>
+      </c>
+      <c r="J1412" t="inlineStr">
+        <is>
+          <t>[0.9530569314956665, 0.00823633186519146, 0.038706809282302856]</t>
+        </is>
+      </c>
+      <c r="K1412" t="inlineStr">
+        <is>
+          <t>[0.9999141693115234, 8.583752060076222e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413" t="n">
+        <v>1410</v>
+      </c>
+      <c r="B1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1413" t="inlineStr">
+        <is>
+          <t>[2 2 1]</t>
+        </is>
+      </c>
+      <c r="D1413" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1413" t="n">
+        <v>23.26312172059164</v>
+      </c>
+      <c r="F1413" t="n">
+        <v>2.580049514770508</v>
+      </c>
+      <c r="G1413" t="n">
+        <v>25.74389534823082</v>
+      </c>
+      <c r="H1413" t="n">
+        <v>0.005145484785010979</v>
+      </c>
+      <c r="I1413" t="n">
+        <v>0.04169654139751527</v>
+      </c>
+      <c r="J1413" t="inlineStr">
+        <is>
+          <t>[0.9972948431968689, 0.0018475899705663323, 0.0008575693937018514]</t>
+        </is>
+      </c>
+      <c r="K1413" t="inlineStr">
+        <is>
+          <t>[0.9999290704727173, 7.095278851920739e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414" t="n">
+        <v>1410</v>
+      </c>
+      <c r="B1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1414" t="inlineStr">
+        <is>
+          <t>[1 2 1]</t>
+        </is>
+      </c>
+      <c r="D1414" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1414" t="n">
+        <v>24.3900360326355</v>
+      </c>
+      <c r="F1414" t="n">
+        <v>2.580049514770508</v>
+      </c>
+      <c r="G1414" t="n">
+        <v>25.74389534823082</v>
+      </c>
+      <c r="H1414" t="n">
+        <v>0.005145484785010979</v>
+      </c>
+      <c r="I1414" t="n">
+        <v>0.04169654139751527</v>
+      </c>
+      <c r="J1414" t="inlineStr">
+        <is>
+          <t>[0.7611727714538574, 0.12491312623023987, 0.1139141395688057]</t>
+        </is>
+      </c>
+      <c r="K1414" t="inlineStr">
+        <is>
+          <t>[0.9999376535415649, 6.238453352125362e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415" t="n">
+        <v>1410</v>
+      </c>
+      <c r="B1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1415" t="inlineStr">
+        <is>
+          <t>[0 2 1]</t>
+        </is>
+      </c>
+      <c r="D1415" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1415" t="n">
+        <v>24.48968206299807</v>
+      </c>
+      <c r="F1415" t="n">
+        <v>2.580049514770508</v>
+      </c>
+      <c r="G1415" t="n">
+        <v>25.74389534823082</v>
+      </c>
+      <c r="H1415" t="n">
+        <v>0.005145484785010979</v>
+      </c>
+      <c r="I1415" t="n">
+        <v>0.04169654139751527</v>
+      </c>
+      <c r="J1415" t="inlineStr">
+        <is>
+          <t>[0.0004872780991718173, 0.1914239227771759, 0.8080888390541077]</t>
+        </is>
+      </c>
+      <c r="K1415" t="inlineStr">
+        <is>
+          <t>[0.9999337196350098, 6.627562106586993e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" t="n">
+        <v>1410</v>
+      </c>
+      <c r="B1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1416" t="inlineStr">
+        <is>
+          <t>[0 2 0]</t>
+        </is>
+      </c>
+      <c r="D1416" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1416" t="n">
+        <v>25.00251409730346</v>
+      </c>
+      <c r="F1416" t="n">
+        <v>2.580049514770508</v>
+      </c>
+      <c r="G1416" t="n">
+        <v>25.74389534823082</v>
+      </c>
+      <c r="H1416" t="n">
+        <v>0.005145484785010979</v>
+      </c>
+      <c r="I1416" t="n">
+        <v>0.04169654139751527</v>
+      </c>
+      <c r="J1416" t="inlineStr">
+        <is>
+          <t>[0.0004984618281014264, 0.9722450375556946, 0.027256464585661888]</t>
+        </is>
+      </c>
+      <c r="K1416" t="inlineStr">
+        <is>
+          <t>[0.9999288320541382, 7.120887312339619e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417" t="n">
+        <v>1410</v>
+      </c>
+      <c r="B1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1417" t="inlineStr">
+        <is>
+          <t>[0 1 0]</t>
+        </is>
+      </c>
+      <c r="D1417" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1417" t="n">
+        <v>23.98568536496206</v>
+      </c>
+      <c r="F1417" t="n">
+        <v>2.580049514770508</v>
+      </c>
+      <c r="G1417" t="n">
+        <v>25.74389534823082</v>
+      </c>
+      <c r="H1417" t="n">
+        <v>0.005145484785010979</v>
+      </c>
+      <c r="I1417" t="n">
+        <v>0.04169654139751527</v>
+      </c>
+      <c r="J1417" t="inlineStr">
+        <is>
+          <t>[0.0002012168988585472, 0.010035848245024681, 0.9897629022598267]</t>
+        </is>
+      </c>
+      <c r="K1417" t="inlineStr">
+        <is>
+          <t>[0.99993896484375, 6.098407175159082e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1418">
+      <c r="A1418" t="n">
+        <v>1410</v>
+      </c>
+      <c r="B1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1418" t="inlineStr">
+        <is>
+          <t>[ 0  1 -1]</t>
+        </is>
+      </c>
+      <c r="D1418" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1418" t="n">
+        <v>25.74904083301583</v>
+      </c>
+      <c r="F1418" t="n">
+        <v>2.580049514770508</v>
+      </c>
+      <c r="G1418" t="n">
+        <v>25.74389534823082</v>
+      </c>
+      <c r="H1418" t="n">
+        <v>0.005145484785010979</v>
+      </c>
+      <c r="I1418" t="n">
+        <v>0.04169654139751527</v>
+      </c>
+      <c r="J1418" t="inlineStr">
+        <is>
+          <t>[0.001967652468010783, 0.9828941226005554, 0.015138218179345131]</t>
+        </is>
+      </c>
+      <c r="K1418" t="inlineStr">
+        <is>
+          <t>[0.9999204874038696, 7.9520141298417e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1419">
+      <c r="A1419" t="n">
+        <v>1410</v>
+      </c>
+      <c r="B1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1419" t="inlineStr">
+        <is>
+          <t>[ 0  0 -1]</t>
+        </is>
+      </c>
+      <c r="D1419" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1419" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1419" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1419" t="n">
+        <v>25.74389534823082</v>
+      </c>
+      <c r="H1419" t="n">
+        <v>0.005145484785010979</v>
+      </c>
+      <c r="I1419" t="n">
+        <v>0.04169654139751527</v>
+      </c>
+      <c r="J1419" t="inlineStr">
+        <is>
+          <t>[0.07705038785934448, 0.024215444922447205, 0.8987342119216919]</t>
+        </is>
+      </c>
+      <c r="K1419" t="inlineStr">
+        <is>
+          <t>[0.9999191761016846, 8.081868145382032e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1420">
+      <c r="A1420" t="n">
+        <v>1410</v>
+      </c>
+      <c r="B1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1420" t="inlineStr">
+        <is>
+          <t>[ 0  0 -2]</t>
+        </is>
+      </c>
+      <c r="D1420" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1420" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1420" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1420" t="n">
+        <v>25.74389534823082</v>
+      </c>
+      <c r="H1420" t="n">
+        <v>0.005145484785010979</v>
+      </c>
+      <c r="I1420" t="n">
+        <v>0.04169654139751527</v>
+      </c>
+      <c r="J1420" t="inlineStr">
+        <is>
+          <t>[0.6674163937568665, 0.2623283565044403, 0.07025516778230667]</t>
+        </is>
+      </c>
+      <c r="K1420" t="inlineStr">
+        <is>
+          <t>[0.9998788833618164, 0.00012105851055821404]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421" t="n">
+        <v>1410</v>
+      </c>
+      <c r="B1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1421" t="inlineStr">
+        <is>
+          <t>[-1  0 -2]</t>
+        </is>
+      </c>
+      <c r="D1421" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1421" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1421" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1421" t="n">
+        <v>25.74389534823082</v>
+      </c>
+      <c r="H1421" t="n">
+        <v>0.005145484785010979</v>
+      </c>
+      <c r="I1421" t="n">
+        <v>0.04169654139751527</v>
+      </c>
+      <c r="J1421" t="inlineStr">
+        <is>
+          <t>[0.00013952607696410269, 0.8019801378250122, 0.1978803128004074]</t>
+        </is>
+      </c>
+      <c r="K1421" t="inlineStr">
+        <is>
+          <t>[0.999847412109375, 0.0001525341358501464]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
